--- a/03_decision/2024.12.AMTM/02.credit.xlsx
+++ b/03_decision/2024.12.AMTM/02.credit.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\X\03_decision\2024.12.AMTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD460078-F8B6-4143-A76C-0E0D861E66E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC651B-917F-472A-8879-CD40CD5D6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="from.scoping" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -43,23 +43,26 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>hard to use naics to do industry trend.</t>
-  </si>
-  <si>
-    <t>instead, focus on the targeted group such as</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>CACI</t>
   </si>
@@ -70,14 +73,233 @@
     <t>J</t>
   </si>
   <si>
-    <t>not customer</t>
+    <t>AMTM</t>
+  </si>
+  <si>
+    <t>Research and Consulting Services</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; defense</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>EIN</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Source: S&amp;P</t>
+  </si>
+  <si>
+    <t>Source: TradingView</t>
+  </si>
+  <si>
+    <t>Leidos Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>20-3562868</t>
+  </si>
+  <si>
+    <t>LDOS</t>
+  </si>
+  <si>
+    <t>NYSE</t>
+  </si>
+  <si>
+    <t>Science Applications International Corporation (SAIC)</t>
+  </si>
+  <si>
+    <t>46-3509666</t>
+  </si>
+  <si>
+    <t>Information technology services</t>
+  </si>
+  <si>
+    <t>Booz Allen Hamilton Holding Corporation</t>
+  </si>
+  <si>
+    <t>36-2513626</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>Miscellaneous commercial services</t>
+  </si>
+  <si>
+    <t>Jacobs Solutions Inc.</t>
+  </si>
+  <si>
+    <t>95-4081636</t>
+  </si>
+  <si>
+    <t>Data processing services</t>
+  </si>
+  <si>
+    <t>Parsons Corporation</t>
+  </si>
+  <si>
+    <t>95-2580851</t>
+  </si>
+  <si>
+    <t>PSN</t>
+  </si>
+  <si>
+    <t>KBR, Inc.</t>
+  </si>
+  <si>
+    <t>54-1899442</t>
+  </si>
+  <si>
+    <t>KBR</t>
+  </si>
+  <si>
+    <t>General Dynamics Information Technology (GDIT)</t>
+  </si>
+  <si>
+    <t>54-1194322</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Aerospace and Defense</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Corporation</t>
+  </si>
+  <si>
+    <t>95-4840775</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>Raytheon Technologies Corporation</t>
+  </si>
+  <si>
+    <t>06-0570975</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>ManTech International Corporation</t>
+  </si>
+  <si>
+    <t>22-1852179</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Privately held</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Huntington Ingalls Industries (HII)</t>
+  </si>
+  <si>
+    <t>90-0607005</t>
+  </si>
+  <si>
+    <t>HII</t>
+  </si>
+  <si>
+    <t>Fluor Corporation</t>
+  </si>
+  <si>
+    <t>33-0927079</t>
+  </si>
+  <si>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>Construction and Engineering</t>
+  </si>
+  <si>
+    <t>Engineering &amp; construction</t>
+  </si>
+  <si>
+    <t>CACI International Inc</t>
+  </si>
+  <si>
+    <t>54-1345888</t>
+  </si>
+  <si>
+    <t>Peraton Inc.</t>
+  </si>
+  <si>
+    <t>81-5224276</t>
+  </si>
+  <si>
+    <t>Source: 01.scoping</t>
+  </si>
+  <si>
+    <t>03-3322268</t>
+  </si>
+  <si>
+    <t>95-3630868</t>
+  </si>
+  <si>
+    <t>20-4596774</t>
+  </si>
+  <si>
+    <t>95-3232481</t>
+  </si>
+  <si>
+    <t>46-1932921</t>
+  </si>
+  <si>
+    <t>54-1521871</t>
+  </si>
+  <si>
+    <t>13-1673581</t>
+  </si>
+  <si>
+    <t>54-0582680</t>
+  </si>
+  <si>
+    <t>GD Land System</t>
+  </si>
+  <si>
+    <t>54-0318880</t>
+  </si>
+  <si>
+    <t>95-1778500</t>
+  </si>
+  <si>
+    <t>CUST_TIN</t>
+  </si>
+  <si>
+    <t>84-3981963</t>
+  </si>
+  <si>
+    <t>99-0622272</t>
+  </si>
+  <si>
+    <t>27-1628265</t>
+  </si>
+  <si>
+    <t>84-4015419</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +307,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,12 +360,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,41 +697,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="str">
+        <f>SUBSTITUTE(C5,"-","")</f>
+        <v>203562868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I34" si="0">SUBSTITUTE(C6,"-","")</f>
+        <v>033322268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>953630868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>463509666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>461932921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>362513626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>954081636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>952580851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>953232481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>541899442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>204596774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>541194322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>541521871</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>131673581</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>540582680</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>954840775</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>060570975</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>951778500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>221852179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>900607005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>540318880</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>330927079</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>541345888</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>815224276</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="C31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>990622272</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>271628265</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>844015419</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>843981963</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>